--- a/standard/drivers/modbus.xlsx
+++ b/standard/drivers/modbus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liubirui\Desktop\驱动文件模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21360" windowHeight="9285"/>
+    <workbookView windowWidth="23895" windowHeight="9930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设备信息表" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t>分组</t>
   </si>
@@ -32,7 +27,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -41,7 +35,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -52,7 +45,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>v</t>
@@ -61,7 +53,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>alue</t>
@@ -167,6 +158,15 @@
     <t>协议类型</t>
   </si>
   <si>
+    <t>limit_interval</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>命令间隔（单位ms）</t>
+  </si>
+  <si>
     <t>command_max_register</t>
   </si>
   <si>
@@ -210,7 +210,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -219,7 +218,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>it位</t>
@@ -235,12 +233,18 @@
     <t>数据类型</t>
   </si>
   <si>
+    <t>是否展示</t>
+  </si>
+  <si>
     <t>电压变比(PT值)</t>
   </si>
   <si>
     <t>UBInt16("pspot")</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>0388</t>
   </si>
   <si>
@@ -262,6 +266,9 @@
     <t>相电压 A</t>
   </si>
   <si>
+    <t>x*y1</t>
+  </si>
+  <si>
     <t>0000</t>
   </si>
   <si>
@@ -367,6 +374,9 @@
     <t>相电流 A</t>
   </si>
   <si>
+    <t>x*y2</t>
+  </si>
+  <si>
     <t>000B</t>
   </si>
   <si>
@@ -532,6 +542,9 @@
     <t>L2("pspot","U",4)</t>
   </si>
   <si>
+    <t>x*y1*y2</t>
+  </si>
+  <si>
     <t>33-34</t>
   </si>
   <si>
@@ -790,6 +803,12 @@
     <t>2_49_0</t>
   </si>
   <si>
+    <t>设置建议</t>
+  </si>
+  <si>
+    <t>设置提示</t>
+  </si>
+  <si>
     <t>CMD</t>
   </si>
   <si>
@@ -797,54 +816,21 @@
   </si>
   <si>
     <t>END_ADDR</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x*y1</t>
-  </si>
-  <si>
-    <t>x*y2</t>
-  </si>
-  <si>
-    <t>x*y1*y2</t>
-  </si>
-  <si>
-    <t>设置建议</t>
-  </si>
-  <si>
-    <t>设置提示</t>
-  </si>
-  <si>
-    <t>limit_interval</t>
-  </si>
-  <si>
-    <t>命令间隔（单位ms）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="m\/d\/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m\/d\/yyyy"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -853,24 +839,167 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,8 +1030,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -912,38 +1227,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -951,24 +1266,266 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,64 +1548,105 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1100,71 +1698,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1379,19 +1977,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -1399,7 +1997,7 @@
     <col min="4" max="4" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1413,154 +2011,154 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>43159</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="16" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1570,24 +2168,24 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="9" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
@@ -1603,1846 +2201,1846 @@
     <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>39</v>
+    <row r="1" spans="1:15">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>242</v>
+        <v>58</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="4">
         <v>904</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>55</v>
+      <c r="J2" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>242</v>
+        <v>58</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I3" s="4">
         <v>905</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>59</v>
+      <c r="J3" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3">
         <v>0.01</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>62</v>
+      <c r="J4" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3">
         <v>0.01</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>66</v>
+      <c r="J5" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3">
         <v>0.01</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>69</v>
+      <c r="J6" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="N6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>241</v>
+        <v>78</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>73</v>
+      <c r="J7" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>76</v>
+      <c r="J8" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D9" s="3">
         <v>0.01</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>79</v>
+      <c r="J9" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3">
         <v>0.01</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I10" s="4">
         <v>6</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>82</v>
+      <c r="J10" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3">
         <v>0.01</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I11" s="4">
         <v>7</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>85</v>
+      <c r="J11" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>241</v>
+        <v>78</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I12" s="4">
         <v>8</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>88</v>
+      <c r="J12" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3">
         <v>0.01</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I13" s="4">
         <v>9</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>91</v>
+      <c r="J13" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3">
         <v>0.01</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="4">
         <v>10</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>94</v>
+      <c r="J14" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>241</v>
+        <v>103</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I15" s="4">
         <v>11</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>97</v>
+      <c r="J15" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>241</v>
+        <v>103</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>101</v>
+      <c r="J16" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>241</v>
+      <c r="H17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="4">
         <v>13</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>104</v>
+      <c r="J17" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>241</v>
+        <v>78</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I18" s="4">
         <v>14</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>107</v>
+      <c r="J18" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>241</v>
+        <v>103</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="4">
         <v>15</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>110</v>
+      <c r="J19" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D20" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>241</v>
+        <v>103</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>113</v>
+      <c r="J20" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="L20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D22" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.0001</v>
+      </c>
+      <c r="E23" t="s">
         <v>123</v>
       </c>
-      <c r="L22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>116</v>
-      </c>
       <c r="F23" t="s">
-        <v>243</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="N23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="L24" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D25" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D26" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="N27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D28" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="L28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D29" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>241</v>
+        <v>159</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="L29" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D30" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>241</v>
+        <v>159</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J30" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0001</v>
+      </c>
+      <c r="E31" t="s">
         <v>158</v>
       </c>
-      <c r="L30" t="s">
+      <c r="F31" t="s">
         <v>159</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>241</v>
+      <c r="H31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="L31" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="N31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D32" s="3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>241</v>
+        <v>159</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="L32" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D33" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I33" s="4">
         <v>41</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>170</v>
+      <c r="J33" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="L33" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D34" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I34" s="4">
         <v>42</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>173</v>
+      <c r="J34" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="L34" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D35" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I35" s="4">
         <v>43</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>176</v>
+      <c r="J35" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="L35" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D36" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I36" s="4">
         <v>44</v>
       </c>
-      <c r="J36" s="18" t="s">
-        <v>179</v>
+      <c r="J36" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="L36" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D37" s="3">
         <v>0.01</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>241</v>
+        <v>58</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I37" s="4">
         <v>45</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>182</v>
+      <c r="J37" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="L37" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D38" s="3">
         <v>0.1</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="L38" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D39" s="3">
         <v>0.1</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>192</v>
+        <v>199</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="L39" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D40" s="3">
         <v>0.1</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="L40" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D41" s="3">
         <v>0.1</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>201</v>
+        <v>208</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="L41" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D42" s="3">
         <v>0.1</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>241</v>
+        <v>123</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>205</v>
+        <v>212</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="L42" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D43" s="3">
         <v>0.1</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>241</v>
+        <v>123</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="L43" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D44" s="3">
         <v>0.1</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="L44" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="N44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D45" s="3">
         <v>0.1</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>217</v>
+        <v>224</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="L45" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D46" s="3">
         <v>0.1</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="L46" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D47" s="3">
         <v>0.1</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="L47" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D48" s="3">
         <v>0.1</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="L48" t="s">
+        <v>235</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L49" t="s">
+        <v>240</v>
+      </c>
+      <c r="N49" t="s">
         <v>241</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="L48" t="s">
-        <v>227</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s">
-        <v>229</v>
-      </c>
-      <c r="H49" s="19" t="s">
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L50" t="s">
+        <v>245</v>
+      </c>
+      <c r="N50" t="s">
         <v>241</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L49" t="s">
-        <v>232</v>
-      </c>
-      <c r="N49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="10">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s">
-        <v>229</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L50" t="s">
-        <v>237</v>
-      </c>
-      <c r="N50" t="s">
-        <v>233</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -3458,45 +4056,45 @@
     <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>246</v>
@@ -3505,45 +4103,42 @@
         <v>247</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H5" s="8"/>
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -3554,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3565,30 +4160,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
